--- a/data/trans_orig/Q46-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Clase-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>81.61486797477292</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80.53132763763074</v>
+        <v>80.53132763763071</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>62.90383731016307</v>
@@ -681,7 +681,7 @@
         <v>65.71103720479026</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>65.85982993855687</v>
+        <v>65.85982993855689</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>73.19856904734129</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>78.88883775660241</v>
+        <v>78.79214975467454</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>80.44334851251149</v>
+        <v>80.50455141852218</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80.27890498849945</v>
+        <v>80.2867784682831</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79.39721139675166</v>
+        <v>79.42847513842132</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>61.8344316769961</v>
+        <v>61.82889064860224</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>62.78994762883912</v>
+        <v>62.7574153506156</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>64.32882607967103</v>
+        <v>64.4711532920733</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>64.99763233412547</v>
+        <v>64.92718418277893</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>72.21452535067768</v>
+        <v>72.12316333094576</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>73.18817471880526</v>
+        <v>73.26498327324565</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>73.4850051617079</v>
+        <v>73.47761221222049</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>72.81508908703051</v>
+        <v>72.73206397727456</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>80.99222488715718</v>
+        <v>81.01368466069566</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>82.92969827069905</v>
+        <v>82.92257095820111</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83.05911049087794</v>
+        <v>83.09981953755357</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>81.7850683777033</v>
+        <v>81.89871132287067</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>64.24069946460357</v>
+        <v>64.29015158732371</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>65.41091251908394</v>
+        <v>65.44902434801052</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>67.24610697955698</v>
+        <v>67.17237228332689</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>67.0039363585194</v>
+        <v>66.98814702407472</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>74.19638499459668</v>
+        <v>74.11317550132723</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75.49964680257114</v>
+        <v>75.49976573869698</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>75.76550923867192</v>
+        <v>75.76397054047658</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>74.61553807779312</v>
+        <v>74.57263390814724</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>80.47988932127906</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>81.48311846017812</v>
+        <v>81.48311846017815</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>63.61273003446187</v>
@@ -817,7 +817,7 @@
         <v>66.23422013868858</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>67.38485976480236</v>
+        <v>67.38485976480237</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>71.26952440289192</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>77.99238528588856</v>
+        <v>78.02196919199027</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>80.82914510927935</v>
+        <v>80.81084973408613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>79.02102205143238</v>
+        <v>79.13388747850783</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>80.28066361208958</v>
+        <v>80.41794677272763</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>62.54070443735074</v>
+        <v>62.56113480637244</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>64.63047693334505</v>
+        <v>64.47618365347665</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>64.96971815208533</v>
+        <v>65.09354359540318</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>66.47035536732945</v>
+        <v>66.29511434032273</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>70.34621039332337</v>
+        <v>70.30324765543156</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73.71887337291086</v>
+        <v>73.71906710209238</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72.32406396080847</v>
+        <v>72.38713668089774</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>74.05489112905686</v>
+        <v>73.92075315579558</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>80.0188190394523</v>
+        <v>80.17525194301344</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>83.22112899065398</v>
+        <v>83.24119351135215</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81.85332048183319</v>
+        <v>81.96555843912552</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82.73465599533348</v>
+        <v>82.79842523827713</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>64.85167357397557</v>
+        <v>64.75228430771983</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>67.09078154710491</v>
+        <v>67.13619220878964</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>67.59695493375176</v>
+        <v>67.59573588479525</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>68.52056400604455</v>
+        <v>68.36364351591611</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>72.28580716469163</v>
+        <v>72.2559752313785</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>75.81147555626167</v>
+        <v>75.90284177520307</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>74.44375768080211</v>
+        <v>74.46869683115865</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>75.8434074685657</v>
+        <v>75.88963598715424</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>80.54692220945043</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>80.92204561286292</v>
+        <v>80.92204561286295</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>65.80529516752352</v>
@@ -965,7 +965,7 @@
         <v>77.45280146163469</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>76.92007983260045</v>
+        <v>76.92007983260044</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>78.196625866267</v>
+        <v>78.33142472391212</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>79.98056779853256</v>
+        <v>80.00767698160936</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79.40239024055893</v>
+        <v>79.42827899563949</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>79.81525780905793</v>
+        <v>79.82626090148051</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>63.95029709352425</v>
+        <v>63.88268096717648</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>67.96968573931836</v>
+        <v>67.99981156256402</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>65.90385101574849</v>
+        <v>66.03296676723912</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>65.37328932495555</v>
+        <v>65.37234684817848</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>75.08459631081557</v>
+        <v>75.14156154625778</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>76.64992338551406</v>
+        <v>76.6749653271166</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>76.31169013046829</v>
+        <v>76.35227869807487</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>75.78748522605196</v>
+        <v>75.87163254489877</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>80.40114839011648</v>
+        <v>80.36929642220457</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>82.06102137597821</v>
+        <v>82.01168747597637</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81.93237271079049</v>
+        <v>82.06309889572631</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>82.17130380268908</v>
+        <v>82.26485873403215</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>67.91047652207098</v>
+        <v>67.93102863263036</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>71.65052087872824</v>
+        <v>71.69436242836409</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>69.83055576446445</v>
+        <v>69.87304714409358</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>68.44362902767773</v>
+        <v>68.47143399073632</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>77.15900322678155</v>
+        <v>77.15579955797025</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>78.642170502309</v>
+        <v>78.72618619258985</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>78.6887889739817</v>
+        <v>78.69943182808836</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>78.02519842192851</v>
+        <v>78.01067844739018</v>
       </c>
     </row>
     <row r="13">
@@ -1089,10 +1089,10 @@
         <v>66.68914564516702</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>68.022376711606</v>
+        <v>68.02237671160599</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>73.66819646075753</v>
+        <v>73.66819646075754</v>
       </c>
       <c r="L13" s="5" t="n">
         <v>75.00628826346197</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>77.63091260452673</v>
+        <v>77.61083812964741</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>79.31934935538105</v>
+        <v>79.34280194507558</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>80.16903536503065</v>
+        <v>80.25099217290395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>80.37106140130581</v>
+        <v>80.38730076859609</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>64.91888195107471</v>
+        <v>64.94865000042751</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>66.45748066659837</v>
+        <v>66.35216228935479</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>65.80275005988143</v>
+        <v>65.76658313326115</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>67.23530670708723</v>
+        <v>67.28786365337018</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>73.04060523337901</v>
+        <v>73.07541340020943</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>74.39169873547129</v>
+        <v>74.33357330499456</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>74.293420516029</v>
+        <v>74.32558038885875</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>74.89156328097887</v>
+        <v>74.90603648861152</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>78.89352113663236</v>
+        <v>78.80917417251796</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>80.94047614144436</v>
+        <v>80.90998236505041</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81.79543219045776</v>
+        <v>81.90022730261039</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82.21565085791279</v>
+        <v>82.2859759221375</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>66.71450443349336</v>
+        <v>66.67032757683606</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>68.24683248258411</v>
+        <v>68.15596935380327</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>67.59273322058982</v>
+        <v>67.68624594251284</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>68.84687340292301</v>
+        <v>68.87753037860166</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>74.19988421595701</v>
+        <v>74.23661506092097</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75.73025980270917</v>
+        <v>75.69175015328199</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>75.6206550265459</v>
+        <v>75.7851446487193</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>76.28415848948107</v>
+        <v>76.31631066472681</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>69.51188037338426</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>70.36872408404444</v>
+        <v>70.36872408404443</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>70.51625812833196</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>74.49056120566947</v>
+        <v>74.45342933589014</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>77.15028778703302</v>
+        <v>77.06873960970763</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78.14415193488807</v>
+        <v>78.1095660553723</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78.22499766929801</v>
+        <v>78.26659187771401</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>66.21735204202307</v>
+        <v>66.15559969158519</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>68.92481545980469</v>
+        <v>68.93113499653742</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>68.55023281804824</v>
+        <v>68.55857525351814</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>69.59540221061009</v>
+        <v>69.59586479263477</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>69.53566221857355</v>
+        <v>69.57525965725608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72.46095854952401</v>
+        <v>72.51276832444266</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73.12295170557387</v>
+        <v>73.18687718787585</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>73.28072723173103</v>
+        <v>73.29827755575791</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>77.46685100371192</v>
+        <v>77.36526970819386</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>79.40490166596162</v>
+        <v>79.38098833398446</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80.36882041451879</v>
+        <v>80.29530325083478</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80.90754680518356</v>
+        <v>80.82846031670279</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>68.34584063737414</v>
+        <v>68.33360709812636</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>71.01234248604756</v>
+        <v>70.9599600149721</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>70.51964394306475</v>
+        <v>70.46199529323897</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>71.12927320509742</v>
+        <v>71.20834391078066</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>71.44911312528038</v>
+        <v>71.4825404546488</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74.03787973620921</v>
+        <v>74.0317381590833</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>74.79176634244457</v>
+        <v>74.75639896511329</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>74.87616752674394</v>
+        <v>74.82554951447609</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>68.20199754502372</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>67.87534528418145</v>
+        <v>67.87534528418146</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>67.09869840257412</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>71.70193343257382</v>
+        <v>71.69904787315383</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>72.09147218472759</v>
+        <v>72.10212911615672</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>71.65227875904623</v>
+        <v>71.64968852557759</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71.9771977501742</v>
+        <v>72.03771220376527</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>65.14722921677701</v>
+        <v>65.10680878774049</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>67.75904410610124</v>
+        <v>67.79441012476549</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>67.35436658258003</v>
+        <v>67.41071138709421</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>66.96483848445071</v>
+        <v>67.01164929656639</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>66.53911919605994</v>
+        <v>66.53550567535017</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>68.87293976689134</v>
+        <v>68.86127233887495</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68.52041934937736</v>
+        <v>68.49945847672156</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>68.38280571161083</v>
+        <v>68.31911051134766</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>73.70043547364806</v>
+        <v>73.86825891660713</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>74.99839755185002</v>
+        <v>75.12732448383871</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>74.87500173278229</v>
+        <v>74.80693107877308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>77.05461449719006</v>
+        <v>77.01285594028768</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>66.5792917885088</v>
+        <v>66.39411989612691</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>69.39588207706333</v>
+        <v>69.38953557629777</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>69.00685554282616</v>
+        <v>69.0080502002844</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>68.67863259377982</v>
+        <v>68.79340422763039</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>67.73310835347442</v>
+        <v>67.73861446433831</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>70.31491057591801</v>
+        <v>70.29354313197301</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>70.00411026226077</v>
+        <v>70.01283621122639</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>70.36643816239187</v>
+        <v>70.24368424156302</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>79.96285494648978</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>80.37422545409783</v>
+        <v>80.37422545409781</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>65.52515820300478</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>77.60045552729211</v>
+        <v>77.61212271088381</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>79.42655921066473</v>
+        <v>79.46934742419491</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>79.47164470287775</v>
+        <v>79.48799359039853</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>79.85216241496239</v>
+        <v>79.84575832501397</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>65.1307569547775</v>
+        <v>65.13196262767782</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>67.54421369397656</v>
+        <v>67.58013943536025</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>67.19334349812263</v>
+        <v>67.21493178720721</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>67.71149386006289</v>
+        <v>67.72083838140284</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>71.32509108132604</v>
+        <v>71.32488560871538</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73.48288997945906</v>
+        <v>73.53584750975874</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73.34152458490686</v>
+        <v>73.32464786890056</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>73.74197576657745</v>
+        <v>73.71489157843556</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>78.39460019075496</v>
+        <v>78.40197144378772</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>80.32826075085477</v>
+        <v>80.35602935512908</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>80.44150874105901</v>
+        <v>80.51564406711393</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>80.915413452973</v>
+        <v>80.88697366373719</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>65.96320881732765</v>
+        <v>65.99292363229642</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>68.4338523835016</v>
+        <v>68.48327782393896</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>68.10731264993905</v>
+        <v>68.13700421380156</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>68.48205899688512</v>
+        <v>68.47233137040853</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>72.00589755080111</v>
+        <v>72.00348338873329</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>74.20686279876591</v>
+        <v>74.19651003026993</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74.08315506062607</v>
+        <v>74.01453555034124</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>74.43687436187548</v>
+        <v>74.41160958950525</v>
       </c>
     </row>
     <row r="25">
